--- a/Reflection-Automation/DataFiles/MethodNames.xlsx
+++ b/Reflection-Automation/DataFiles/MethodNames.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{F3774AC7-05D8-4E29-ADC4-7C46E2B59586}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{5E42C862-B0EE-40E9-8389-43994B01AE5F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="3570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="3570" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:E15"/>
+  <oleSize ref="A1:J9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>MethodName</t>
   </si>
@@ -79,6 +79,63 @@
   </si>
   <si>
     <t>convertCharArray</t>
+  </si>
+  <si>
+    <t>methodname</t>
+  </si>
+  <si>
+    <t>packagename</t>
+  </si>
+  <si>
+    <t>lanchBrowser</t>
+  </si>
+  <si>
+    <t>Actitime.ChromDemo</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>closeApplication</t>
+  </si>
+  <si>
+    <t>method names</t>
+  </si>
+  <si>
+    <t>package names</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT1</t>
+  </si>
+  <si>
+    <t>lunchBrowse</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT2</t>
+  </si>
+  <si>
+    <t>minimizeflyout</t>
+  </si>
+  <si>
+    <t>createUser</t>
+  </si>
+  <si>
+    <t>deleteUser</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>packag names</t>
+  </si>
+  <si>
+    <t>lunchBrowser</t>
+  </si>
+  <si>
+    <t>modify</t>
   </si>
 </sst>
 </file>
@@ -423,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,36 +610,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
